--- a/data/evaluation/evaluation_Center_Spring_Oranges.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Oranges.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2221.542590369481</v>
+        <v>1926.939415766307</v>
       </c>
       <c r="C3" t="n">
-        <v>9059751.820008168</v>
+        <v>7900979.333235679</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.942162236372</v>
+        <v>2810.868074676519</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1697990147823392</v>
+        <v>-0.02017781761116599</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2020.145930398733</v>
+        <v>2011.738070903946</v>
       </c>
       <c r="C4" t="n">
-        <v>7826427.204523284</v>
+        <v>7820013.587194053</v>
       </c>
       <c r="D4" t="n">
-        <v>2797.575236615324</v>
+        <v>2796.428720206194</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01055161498991053</v>
+        <v>-0.009723485987926717</v>
       </c>
     </row>
     <row r="5">
